--- a/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F747B1AC-FE8F-6343-A6C5-2DC9A50A6102}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E287762-04FA-424E-A692-5C9CF69DC206}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0508" sheetId="1" r:id="rId1"/>
     <sheet name="0517" sheetId="2" r:id="rId2"/>
+    <sheet name="0524" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -353,6 +355,91 @@
   </si>
   <si>
     <t>Polly版も作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズベリーパイの設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗は80%</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPが動かなくて苦戦中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他チームの協力も得ながら、PHPを入れ直し試行錯誤中</t>
+    <rPh sb="0" eb="1">
+      <t>タチーm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GASからGoogleフォームを作成中</t>
+    <rPh sb="0" eb="1">
+      <t>チュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物が概ね完成した。各自分担された作業を行っている。</t>
+    <rPh sb="0" eb="1">
+      <t>セイカブt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画書作成</t>
+    <rPh sb="0" eb="5">
+      <t>キカk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成後、Slackbotチームに合流</t>
+    <rPh sb="0" eb="1">
+      <t>g</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成後、ラズベリーパイチームに合流</t>
+    <rPh sb="0" eb="2">
+      <t>カンセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各チーム作業が行き詰まっている</t>
+    <rPh sb="0" eb="1">
+      <t>カクt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索では限界があるため、教えを請うことにした</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方法がわからない、調べても載っていない</t>
+    <rPh sb="0" eb="2">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤澤先生に質問、リファレンスを翻訳しながら学習する</t>
+    <rPh sb="0" eb="2">
+      <t>フジサw</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -574,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,6 +710,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -706,6 +796,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -724,56 +865,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,43 +1312,43 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="30"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
@@ -1317,12 +1416,12 @@
         <v>19</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
@@ -1351,42 +1450,42 @@
         <v>24</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="37" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="32"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1412,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEECAC17-B4FC-D845-B2DC-51DB203A685C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1491,45 +1590,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="65" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -1572,22 +1671,22 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="71" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72" t="s">
+      <c r="F10" s="66"/>
+      <c r="G10" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="72" t="s">
+      <c r="H10" s="68"/>
+      <c r="I10" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="73"/>
+      <c r="J10" s="68"/>
       <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
@@ -1601,96 +1700,96 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72" t="s">
+      <c r="F11" s="66"/>
+      <c r="G11" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="72" t="s">
+      <c r="H11" s="68"/>
+      <c r="I11" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="73"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="55" t="s">
+      <c r="D12" s="70"/>
+      <c r="E12" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="61" t="s">
+      <c r="F12" s="73"/>
+      <c r="G12" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="61" t="s">
+      <c r="H12" s="57"/>
+      <c r="I12" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="62"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="57" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="61" t="s">
+      <c r="F14" s="53"/>
+      <c r="G14" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="61" t="s">
+      <c r="H14" s="57"/>
+      <c r="I14" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="62"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="C14:D15"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -1701,14 +1800,309 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B1EADB-BB88-A841-812D-EB73A8FD3406}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43609</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="20">
+      <c r="A5" s="1"/>
+      <c r="B5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" spans="1:12" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" ht="20">
+      <c r="A7" s="1"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:12" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" s="20" customFormat="1" ht="40" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" ht="40" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:12" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:12" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="1:12" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E287762-04FA-424E-A692-5C9CF69DC206}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BC81AE8-D150-3C41-9456-AE79242C815F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0508" sheetId="1" r:id="rId1"/>
     <sheet name="0517" sheetId="2" r:id="rId2"/>
     <sheet name="0524" sheetId="3" r:id="rId3"/>
+    <sheet name="0531" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -439,6 +439,99 @@
     <t>藤澤先生に質問、リファレンスを翻訳しながら学習する</t>
     <rPh sb="0" eb="2">
       <t>フジサw</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村賢哉</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリガーの設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計処理の作成</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDを光らせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPIOがよくわからない。電子工作が初めてで行きつまる可能性あり。</t>
+    <rPh sb="0" eb="3">
+      <t>デンシコウサk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットで調べて解決を図る</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妥協策を適用する</t>
+    <rPh sb="0" eb="2">
+      <t>ダキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リファレンスを翻訳しながら学習中</t>
+    <rPh sb="0" eb="1">
+      <t>チュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GASからGoogleフォーム作成</t>
+    <rPh sb="0" eb="1">
+      <t>チュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプレッドシートのIDの取得を実装できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方法を模索中</t>
+    <rPh sb="0" eb="2">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各自分担された作業を行っている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様々な方向から解決策を探っている</t>
+    <rPh sb="0" eb="1">
+      <t>サマザm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了したが、投票回数の制限ができない</t>
+    <rPh sb="0" eb="1">
+      <t>カンリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPの設定は完了、電子工作の練習としてラズパイでLEDを光らせる準備中</t>
+    <rPh sb="0" eb="1">
+      <t>カn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -796,6 +889,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -820,51 +958,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -873,6 +966,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,14 +1756,14 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
@@ -1613,10 +1772,10 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
@@ -1625,10 +1784,10 @@
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -1671,22 +1830,22 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="66" t="s">
+      <c r="D10" s="66"/>
+      <c r="E10" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="67" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="68"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
@@ -1700,76 +1859,76 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="66"/>
+      <c r="I11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="73" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="56" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="56" t="s">
+      <c r="F14" s="68"/>
+      <c r="G14" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="56" t="s">
+      <c r="H14" s="72"/>
+      <c r="I14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
@@ -1778,20 +1937,18 @@
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="41"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
     <mergeCell ref="I5:J7"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:F10"/>
@@ -1799,12 +1956,14 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1816,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B1EADB-BB88-A841-812D-EB73A8FD3406}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1895,45 +2054,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="58" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="62"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="65"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -1976,18 +2135,18 @@
       <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="66" t="s">
+      <c r="D10" s="66"/>
+      <c r="E10" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
@@ -1999,14 +2158,14 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
@@ -2014,82 +2173,75 @@
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="73" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="56" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="52" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="56" t="s">
+      <c r="F14" s="68"/>
+      <c r="G14" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="56" t="s">
+      <c r="H14" s="72"/>
+      <c r="I14" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:H15"/>
@@ -2101,6 +2253,310 @@
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0C7A59-DAFB-DE45-A4F5-394C3BBF2992}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43616</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="20">
+      <c r="A5" s="1"/>
+      <c r="B5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:10" ht="20">
+      <c r="A7" s="1"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="96"/>
+      <c r="I10" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="96"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="86"/>
+      <c r="I11" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="86"/>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="96"/>
+      <c r="I12" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="96"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="94"/>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E13:F15"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BC81AE8-D150-3C41-9456-AE79242C815F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0217ADCD-E5FF-4A4F-A909-893AA5F686D4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0508" sheetId="1" r:id="rId1"/>
     <sheet name="0517" sheetId="2" r:id="rId2"/>
     <sheet name="0524" sheetId="3" r:id="rId3"/>
     <sheet name="0531" sheetId="5" r:id="rId4"/>
+    <sheet name="0607" sheetId="7" r:id="rId5"/>
+    <sheet name="0614" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -500,17 +503,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スプレッドシートのIDの取得を実装できない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>方法を模索中</t>
-    <rPh sb="0" eb="2">
-      <t>ホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各自分担された作業を行っている。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -532,6 +524,151 @@
     <t>PHPの設定は完了、電子工作の練習としてラズパイでLEDを光らせる準備中</t>
     <rPh sb="0" eb="1">
       <t>カn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプレッドシートのIDを受け取れない可能性あり</t>
+    <rPh sb="0" eb="1">
+      <t>オk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小嶋さんのソースを見たら解決する</t>
+    <rPh sb="0" eb="2">
+      <t>コジm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各自分担された作業を行っている。遅れが出てきた。</t>
+    <rPh sb="0" eb="1">
+      <t>オk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースの結合中</t>
+    <rPh sb="0" eb="1">
+      <t>TYU</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン機能のテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDが壊れてる可能性があるため、新しいLEDが手に入るまでにラズベリーパイの公開鍵認証でのSSH接続を完了させた。</t>
+    <rPh sb="0" eb="1">
+      <t>ガコワレテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体的に遅れが出てきた</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後半に予定していた追加機能の時間を削る</t>
+    <rPh sb="0" eb="2">
+      <t>コウハn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一つのプロジェクトに結合すると、動かなくなる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDが壊れている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDを調達する</t>
+    <rPh sb="0" eb="1">
+      <t>エオty</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別の策を試す</t>
+    <rPh sb="0" eb="1">
+      <t>ベt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了。あとは木村宅での実機テストを行えば終了</t>
+  </si>
+  <si>
+    <t>追加機能作成作業を削ったことで順調に進んでいる。遅れも取り戻した</t>
+    <rPh sb="0" eb="2">
+      <t>ツイk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースの結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間違い探し中</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動かなくなった。それを解決すれば完成</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンの設定、メッセージ作成</t>
+    <rPh sb="0" eb="2">
+      <t>セカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤外線登録・Slackのキーワードに反応</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木村が拒否中</t>
+    <rPh sb="0" eb="2">
+      <t>キムr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中が説得</t>
+    <rPh sb="0" eb="2">
+      <t>タナk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り掛かり</t>
+    <rPh sb="0" eb="1">
+      <t>トリカカr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加機能作成</t>
+    <rPh sb="0" eb="2">
+      <t>ツイk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -890,6 +1027,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -907,33 +1083,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -946,18 +1095,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -967,6 +1104,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,58 +1122,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1756,14 +1893,14 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
@@ -1772,10 +1909,10 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
@@ -1784,10 +1921,10 @@
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -1830,22 +1967,22 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="64" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="65" t="s">
+      <c r="H10" s="64"/>
+      <c r="I10" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="66"/>
+      <c r="J10" s="64"/>
       <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
@@ -1859,76 +1996,76 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="62"/>
+      <c r="G11" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65" t="s">
+      <c r="H11" s="64"/>
+      <c r="I11" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="66"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="71" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="71" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="72"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="70" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="71" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="71" t="s">
+      <c r="H14" s="53"/>
+      <c r="I14" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="72"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
@@ -1937,15 +2074,23 @@
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="41"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="74"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
@@ -1956,14 +2101,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G12:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2054,45 +2191,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2135,18 +2272,18 @@
       <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="64" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
@@ -2158,14 +2295,14 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
@@ -2173,75 +2310,82 @@
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="71" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="71" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="72"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="67" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="71" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="71" t="s">
+      <c r="H14" s="53"/>
+      <c r="I14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="72"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="74"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:H15"/>
@@ -2253,13 +2397,6 @@
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2271,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0C7A59-DAFB-DE45-A4F5-394C3BBF2992}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2350,45 +2487,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
-        <v>75</v>
+      <c r="B5" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="59"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -2431,133 +2568,719 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="89" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="95" t="s">
+      <c r="F10" s="87"/>
+      <c r="G10" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="95" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="96"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="89" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="85" t="s">
+      <c r="F11" s="87"/>
+      <c r="G11" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="86"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="96"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="82" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="93"/>
+      <c r="G13" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="82" t="s">
+      <c r="H13" s="99"/>
+      <c r="I13" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="94"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E13:F15"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C10:D12"/>
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E13:F15"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05615BE-CCD1-9948-9313-D393EAAA6028}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43623</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="20">
+      <c r="A5" s="1"/>
+      <c r="B5" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10" ht="20">
+      <c r="A7" s="1"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="81"/>
+      <c r="E10" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="87"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="93"/>
+      <c r="G11" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="99"/>
+      <c r="I11" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="99"/>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="93"/>
+      <c r="G13" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="99"/>
+      <c r="I13" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="99"/>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E13:F15"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J15"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24731A61-6E1B-1E4C-8A98-5F6EE1D630E4}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43630</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="20">
+      <c r="A5" s="1"/>
+      <c r="B5" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10" ht="20">
+      <c r="A7" s="1"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="81"/>
+      <c r="E10" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="93"/>
+      <c r="G10" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="99"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="87"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="79"/>
+      <c r="E13" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="87"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="99"/>
+      <c r="E14" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="93"/>
+      <c r="G14" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="99"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9814433B-B24F-E740-8D0F-67925175B57F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0217ADCD-E5FF-4A4F-A909-893AA5F686D4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{057069AB-3255-FC49-B254-3602425BEF48}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0508" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="0531" sheetId="5" r:id="rId4"/>
     <sheet name="0607" sheetId="7" r:id="rId5"/>
     <sheet name="0614" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="0621" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="110">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -669,6 +669,70 @@
     <t>追加機能作成</t>
     <rPh sb="0" eb="2">
       <t>ツイk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕上げ作業に入った</t>
+    <rPh sb="0" eb="2">
+      <t>シアg</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木村宅での実機テスト準備</t>
+    <rPh sb="0" eb="2">
+      <t>キムr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総括</t>
+    <rPh sb="0" eb="2">
+      <t>ソウカt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わからないことへの助言</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投票なりすまし機能作成</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレゼン資料作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン考え中</t>
+    <rPh sb="0" eb="1">
+      <t>カn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実機操作作成</t>
+    <rPh sb="0" eb="2">
+      <t>ジッk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木村宅のリモコンが最先端すぎて赤外線を使わないタイプだった</t>
+    <rPh sb="0" eb="2">
+      <t>キムr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんなの家のリモコンを持ってくる！</t>
+    <rPh sb="0" eb="1">
+      <t>ミンナノイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -721,7 +785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -887,11 +951,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1027,6 +1143,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,63 +1208,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1104,6 +1220,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1128,46 +1286,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1893,14 +2021,14 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
@@ -1909,10 +2037,10 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
@@ -1921,10 +2049,10 @@
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -1967,22 +2095,22 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="62" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63" t="s">
+      <c r="F10" s="74"/>
+      <c r="G10" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
@@ -1996,76 +2124,76 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63" t="s">
+      <c r="F11" s="74"/>
+      <c r="G11" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63" t="s">
+      <c r="H11" s="65"/>
+      <c r="I11" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="69" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="52" t="s">
+      <c r="H12" s="71"/>
+      <c r="I12" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="53"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="52" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="52" t="s">
+      <c r="H14" s="71"/>
+      <c r="I14" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
@@ -2074,23 +2202,15 @@
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="41"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
@@ -2101,6 +2221,14 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G12:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2191,45 +2319,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2272,18 +2400,18 @@
       <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="62" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
@@ -2295,14 +2423,14 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
@@ -2310,82 +2438,75 @@
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="69" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="52" t="s">
+      <c r="H12" s="71"/>
+      <c r="I12" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="53"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="71" t="s">
+      <c r="D14" s="71"/>
+      <c r="E14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="52" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="52" t="s">
+      <c r="H14" s="71"/>
+      <c r="I14" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="71"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:H15"/>
@@ -2397,6 +2518,13 @@
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2487,45 +2615,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -2568,115 +2696,122 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="78" t="s">
+      <c r="F10" s="83"/>
+      <c r="G10" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="78" t="s">
+      <c r="H10" s="93"/>
+      <c r="I10" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="79"/>
+      <c r="J10" s="93"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="86" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="90" t="s">
+      <c r="F11" s="83"/>
+      <c r="G11" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="90" t="s">
+      <c r="H11" s="81"/>
+      <c r="I11" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="91"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86" t="s">
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="78" t="s">
+      <c r="F12" s="83"/>
+      <c r="G12" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="78" t="s">
+      <c r="H12" s="93"/>
+      <c r="I12" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="79"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="92" t="s">
+      <c r="D13" s="79"/>
+      <c r="E13" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="98" t="s">
+      <c r="F13" s="85"/>
+      <c r="G13" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98" t="s">
+      <c r="H13" s="91"/>
+      <c r="I13" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="99"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -2687,13 +2822,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2784,45 +2912,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -2865,105 +2993,112 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="92" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="98" t="s">
+      <c r="F11" s="85"/>
+      <c r="G11" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98" t="s">
+      <c r="H11" s="91"/>
+      <c r="I11" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="99"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="92" t="s">
+      <c r="D13" s="79"/>
+      <c r="E13" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="98" t="s">
+      <c r="F13" s="85"/>
+      <c r="G13" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98" t="s">
+      <c r="H13" s="91"/>
+      <c r="I13" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="99"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E13:F15"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J15"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -2971,13 +3106,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E13:F15"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J15"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2989,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24731A61-6E1B-1E4C-8A98-5F6EE1D630E4}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:F7"/>
     </sheetView>
   </sheetViews>
@@ -3068,41 +3196,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3145,106 +3273,106 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="92" t="s">
+      <c r="D10" s="95"/>
+      <c r="E10" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="98" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98" t="s">
+      <c r="H10" s="91"/>
+      <c r="I10" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="99"/>
+      <c r="J10" s="91"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86" t="s">
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="93"/>
+      <c r="E13" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="92" t="s">
+      <c r="D14" s="91"/>
+      <c r="E14" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="88" t="s">
+      <c r="F14" s="85"/>
+      <c r="G14" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="98" t="s">
+      <c r="H14" s="79"/>
+      <c r="I14" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="99"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3274,14 +3402,286 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9814433B-B24F-E740-8D0F-67925175B57F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D570B5AD-0A07-C44F-90D3-6A364554BBDB}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43637</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="20">
+      <c r="A5" s="1"/>
+      <c r="B5" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:10" ht="20">
+      <c r="A7" s="1"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" spans="1:10" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="85"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="83"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="93"/>
+      <c r="E13" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="83"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="91"/>
+      <c r="G14" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="I14" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="91"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{057069AB-3255-FC49-B254-3602425BEF48}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{142F7B23-537F-8E47-954A-96FCBFE137FB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0508" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="0607" sheetId="7" r:id="rId5"/>
     <sheet name="0614" sheetId="8" r:id="rId6"/>
     <sheet name="0621" sheetId="9" r:id="rId7"/>
+    <sheet name="0628" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="116">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -734,6 +735,42 @@
     <rPh sb="0" eb="1">
       <t>ミンナノイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やり方がわからない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 先生と模索中</t>
+    <rPh sb="0" eb="7">
+      <t>センセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解散</t>
+    <rPh sb="0" eb="2">
+      <t>カイサn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強準備</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョウジュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使いこなせるようになったため、あとはゴリゴリ作るだけ</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレゼン用動画作成</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -785,7 +822,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1003,11 +1040,28 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1143,6 +1197,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,30 +1253,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,21 +1265,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1220,6 +1274,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1232,12 +1316,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1262,30 +1340,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1296,6 +1350,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2021,14 +2095,14 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
@@ -2037,10 +2111,10 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
@@ -2049,10 +2123,10 @@
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2095,22 +2169,22 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="74" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="64" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="64" t="s">
+      <c r="H10" s="64"/>
+      <c r="I10" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="65"/>
+      <c r="J10" s="64"/>
       <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
@@ -2124,76 +2198,76 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="64" t="s">
+      <c r="F11" s="62"/>
+      <c r="G11" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="64" t="s">
+      <c r="H11" s="64"/>
+      <c r="I11" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="65"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="70" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="70" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="71"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="70" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="70" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="70" t="s">
+      <c r="H14" s="53"/>
+      <c r="I14" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="71"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
@@ -2202,15 +2276,23 @@
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="41"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
@@ -2221,14 +2303,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G12:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2319,45 +2393,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2400,18 +2474,18 @@
       <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="74" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
@@ -2423,14 +2497,14 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
@@ -2438,75 +2512,82 @@
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="70" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="70" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="71"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="66" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="70" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="70" t="s">
+      <c r="H14" s="53"/>
+      <c r="I14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="71"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:H15"/>
@@ -2518,13 +2599,6 @@
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,45 +2689,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -2696,122 +2770,115 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="82" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="92" t="s">
+      <c r="F10" s="87"/>
+      <c r="G10" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="92" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="93"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="82" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="80" t="s">
+      <c r="F11" s="87"/>
+      <c r="G11" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="80" t="s">
+      <c r="H11" s="91"/>
+      <c r="I11" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="81"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="82" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="92" t="s">
+      <c r="F12" s="87"/>
+      <c r="G12" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="92" t="s">
+      <c r="H12" s="79"/>
+      <c r="I12" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="93"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="90" t="s">
+      <c r="F13" s="93"/>
+      <c r="G13" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="90" t="s">
+      <c r="H13" s="99"/>
+      <c r="I13" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="91"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -2822,6 +2889,13 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2912,45 +2986,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -2993,105 +3067,112 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="82" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="93"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="84" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="90" t="s">
+      <c r="F11" s="93"/>
+      <c r="G11" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="90" t="s">
+      <c r="H11" s="99"/>
+      <c r="I11" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="91"/>
+      <c r="J11" s="99"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="90" t="s">
+      <c r="F13" s="93"/>
+      <c r="G13" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="90" t="s">
+      <c r="H13" s="99"/>
+      <c r="I13" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="91"/>
+      <c r="J13" s="99"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E13:F15"/>
     <mergeCell ref="G13:H15"/>
@@ -3099,13 +3180,6 @@
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="I11:J12"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3196,41 +3270,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3273,109 +3347,111 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="84" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="90" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="90" t="s">
+      <c r="H10" s="99"/>
+      <c r="I10" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="91"/>
+      <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="82" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="93"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="82" t="s">
+      <c r="D13" s="79"/>
+      <c r="E13" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="93"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="84" t="s">
+      <c r="D14" s="99"/>
+      <c r="E14" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="78" t="s">
+      <c r="F14" s="93"/>
+      <c r="G14" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="90" t="s">
+      <c r="H14" s="89"/>
+      <c r="I14" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="91"/>
+      <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -3392,8 +3468,6 @@
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3405,7 +3479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D570B5AD-0A07-C44F-90D3-6A364554BBDB}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3484,41 +3558,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
       <c r="E5" s="75"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3561,14 +3635,14 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="84" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="100"/>
       <c r="H10" s="101"/>
       <c r="I10" s="100"/>
@@ -3579,10 +3653,10 @@
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="102"/>
       <c r="H11" s="103"/>
       <c r="I11" s="102"/>
@@ -3593,14 +3667,14 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="82" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="100"/>
       <c r="H12" s="101"/>
       <c r="I12" s="100"/>
@@ -3611,14 +3685,14 @@
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="82" t="s">
+      <c r="D13" s="79"/>
+      <c r="E13" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="102"/>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
@@ -3629,39 +3703,40 @@
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="90" t="s">
+      <c r="D14" s="99"/>
+      <c r="E14" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="78" t="s">
+      <c r="F14" s="99"/>
+      <c r="G14" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="90" t="s">
+      <c r="H14" s="89"/>
+      <c r="I14" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="91"/>
+      <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="G12:H13"/>
@@ -3678,7 +3753,295 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF45C6-D7E3-B946-8B07-8D850D13C2A1}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43644</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="20">
+      <c r="A5" s="1"/>
+      <c r="B5" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10" ht="20">
+      <c r="A7" s="1"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="106"/>
+      <c r="I9" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="106"/>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="81"/>
+      <c r="E10" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="104"/>
+      <c r="G10" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="108"/>
+      <c r="I10" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="99"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
+    </row>
+    <row r="12" spans="1:10" ht="58" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{142F7B23-537F-8E47-954A-96FCBFE137FB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD2BC446-5822-4947-96A6-9C4F311CA03F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="123">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -738,10 +738,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>やり方がわからない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 先生と模索中</t>
     <rPh sb="0" eb="7">
       <t>センセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセセンセ</t>
@@ -749,28 +745,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>解散</t>
-    <rPh sb="0" eb="2">
-      <t>カイサn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勉強準備</t>
-    <rPh sb="0" eb="2">
+    <t>プレゼン用動画作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gas処理担当</t>
+    <rPh sb="0" eb="2">
+      <t>ショr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプレッドシート書き直し</t>
+    <rPh sb="0" eb="1">
+      <t>カk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームの仕様変更が起きた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更仕様要求反映</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレゼン資料作成</t>
+    <rPh sb="0" eb="2">
+      <t>シリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラズパイ側勉強準備</t>
+    <rPh sb="35" eb="37">
       <t>ベンキョウジュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使いこなせるようになったため、あとはゴリゴリ作るだけ</t>
-    <rPh sb="0" eb="1">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレゼン用動画作成</t>
+    <t>システムの使用性、完全性向上のため変更が増えた</t>
+    <rPh sb="0" eb="2">
+      <t>シヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間との兼ね合いを考え、実装する部分、実装しない部分を分けて作成</t>
+    <rPh sb="0" eb="2">
+      <t>ジカn</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1061,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1113,6 +1153,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1352,24 +1394,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1810,43 +1844,43 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="23" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="23" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="25"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
@@ -1914,12 +1948,12 @@
         <v>19</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
@@ -1948,42 +1982,42 @@
         <v>24</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="33"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2088,45 +2122,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="56" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2169,22 +2203,22 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="62" t="s">
+      <c r="D10" s="66"/>
+      <c r="E10" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="66"/>
       <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
@@ -2198,90 +2232,90 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63" t="s">
+      <c r="H11" s="66"/>
+      <c r="I11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="64"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="69" t="s">
+      <c r="D12" s="68"/>
+      <c r="E12" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="71"/>
+      <c r="G12" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="52" t="s">
+      <c r="H12" s="55"/>
+      <c r="I12" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="53"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="71" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="52" t="s">
+      <c r="F14" s="74"/>
+      <c r="G14" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="52" t="s">
+      <c r="H14" s="55"/>
+      <c r="I14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2393,45 +2427,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2474,18 +2508,18 @@
       <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="62" t="s">
+      <c r="D10" s="66"/>
+      <c r="E10" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
@@ -2497,14 +2531,14 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
@@ -2512,72 +2546,72 @@
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="69" t="s">
+      <c r="D12" s="68"/>
+      <c r="E12" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="71"/>
+      <c r="G12" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="52" t="s">
+      <c r="H12" s="55"/>
+      <c r="I12" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="53"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="71" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="52" t="s">
+      <c r="F14" s="74"/>
+      <c r="G14" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="52" t="s">
+      <c r="H14" s="55"/>
+      <c r="I14" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2689,45 +2723,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -2770,112 +2804,112 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="78" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="78" t="s">
+      <c r="H10" s="81"/>
+      <c r="I10" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="79"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="86" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="90" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="90" t="s">
+      <c r="H11" s="93"/>
+      <c r="I11" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="91"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="78" t="s">
+      <c r="F12" s="89"/>
+      <c r="G12" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="78" t="s">
+      <c r="H12" s="81"/>
+      <c r="I12" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="79"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="92" t="s">
+      <c r="D13" s="91"/>
+      <c r="E13" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="98" t="s">
+      <c r="F13" s="95"/>
+      <c r="G13" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98" t="s">
+      <c r="H13" s="101"/>
+      <c r="I13" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="99"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2986,45 +3020,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3067,102 +3101,102 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="92" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="98" t="s">
+      <c r="F11" s="95"/>
+      <c r="G11" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98" t="s">
+      <c r="H11" s="101"/>
+      <c r="I11" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="99"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="93"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="92" t="s">
+      <c r="D13" s="91"/>
+      <c r="E13" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="98" t="s">
+      <c r="F13" s="95"/>
+      <c r="G13" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98" t="s">
+      <c r="H13" s="101"/>
+      <c r="I13" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="99"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3270,41 +3304,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3347,111 +3381,109 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="92" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="98" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="99"/>
+      <c r="J10" s="101"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="92" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="88" t="s">
+      <c r="F14" s="95"/>
+      <c r="G14" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="98" t="s">
+      <c r="H14" s="91"/>
+      <c r="I14" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="99"/>
+      <c r="J14" s="101"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -3468,6 +3500,8 @@
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3558,41 +3592,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3635,124 +3669,124 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="92" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86" t="s">
+      <c r="D12" s="87"/>
+      <c r="E12" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="101"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="103"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="98" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="88" t="s">
+      <c r="F14" s="101"/>
+      <c r="G14" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="98" t="s">
+      <c r="H14" s="91"/>
+      <c r="I14" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="99"/>
+      <c r="J14" s="101"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
-    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="I10:J11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C10:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E14:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3765,7 +3799,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3843,41 +3877,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3906,142 +3944,151 @@
         <v>8</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="105" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="106"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="92" t="s">
+      <c r="C10" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="98" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="101"/>
+      <c r="I10" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="99"/>
+      <c r="J10" s="101"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="58" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
+      <c r="C12" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
+      <c r="C13" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="107"/>
+      <c r="E13" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
+      <c r="C14" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="109"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110" t="s">
+      <c r="C15" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="109"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="I10:J11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /91.中間発表/進捗報告【SSH48】.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD2BC446-5822-4947-96A6-9C4F311CA03F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96C2AB2-97A5-D245-A983-0E5561B8CF4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15820" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0508" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,10 @@
     <sheet name="0614" sheetId="8" r:id="rId6"/>
     <sheet name="0621" sheetId="9" r:id="rId7"/>
     <sheet name="0628" sheetId="10" r:id="rId8"/>
+    <sheet name="0705" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="131">
   <si>
     <t>進捗報告</t>
     <rPh sb="0" eb="2">
@@ -794,7 +796,7 @@
   </si>
   <si>
     <t>ラズパイ側勉強準備</t>
-    <rPh sb="35" eb="37">
+    <rPh sb="0" eb="9">
       <t>ベンキョウジュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -810,6 +812,56 @@
     <t>時間との兼ね合いを考え、実装する部分、実装しない部分を分けて作成</t>
     <rPh sb="0" eb="2">
       <t>ジカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト作成</t>
+    <rPh sb="0" eb="1">
+      <t>サk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <rPh sb="0" eb="2">
+      <t>ショr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gas側勉強準備</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更も終わり、納品に向け作業中</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画が家でしか作れない</t>
+    <rPh sb="0" eb="2">
+      <t>ドウg</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家で頑張ります</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -862,7 +914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1097,11 +1149,41 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1239,6 +1321,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1250,63 +1386,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1316,6 +1398,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1340,48 +1464,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1394,16 +1476,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2129,14 +2226,14 @@
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
@@ -2145,10 +2242,10 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
@@ -2157,10 +2254,10 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2203,22 +2300,22 @@
       <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="64" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="65" t="s">
+      <c r="H10" s="67"/>
+      <c r="I10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="66"/>
+      <c r="J10" s="67"/>
       <c r="L10" s="21" t="s">
         <v>42</v>
       </c>
@@ -2232,76 +2329,76 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65" t="s">
+      <c r="F11" s="76"/>
+      <c r="G11" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65" t="s">
+      <c r="H11" s="67"/>
+      <c r="I11" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="66"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="71" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="54" t="s">
+      <c r="F12" s="58"/>
+      <c r="G12" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="54" t="s">
+      <c r="H12" s="73"/>
+      <c r="I12" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="55"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="41"/>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="54" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="54" t="s">
+      <c r="H14" s="73"/>
+      <c r="I14" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="55"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
@@ -2310,23 +2407,15 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="43"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
@@ -2337,6 +2426,14 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G12:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2427,45 +2524,45 @@
     </row>
     <row r="5" spans="1:12" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:12" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:12" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:12" ht="20">
       <c r="A8" s="1"/>
@@ -2508,18 +2605,18 @@
       <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="64" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="17" customFormat="1" ht="40" customHeight="1">
@@ -2531,14 +2628,14 @@
         <v>32</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="40" customHeight="1">
@@ -2546,82 +2643,75 @@
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="71" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="54" t="s">
+      <c r="F12" s="58"/>
+      <c r="G12" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="54" t="s">
+      <c r="H12" s="73"/>
+      <c r="I12" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="55"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:12" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:12" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="73" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="54" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="54" t="s">
+      <c r="H14" s="73"/>
+      <c r="I14" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="55"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:12" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:H15"/>
@@ -2633,6 +2723,13 @@
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:J13"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2723,45 +2820,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -2804,115 +2901,122 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="88" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="80" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="80" t="s">
+      <c r="H10" s="95"/>
+      <c r="I10" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="81"/>
+      <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="92" t="s">
+      <c r="F11" s="85"/>
+      <c r="G11" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="92" t="s">
+      <c r="H11" s="83"/>
+      <c r="I11" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="93"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="80" t="s">
+      <c r="F12" s="85"/>
+      <c r="G12" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="80" t="s">
+      <c r="H12" s="95"/>
+      <c r="I12" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="81"/>
+      <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="94" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="100" t="s">
+      <c r="F13" s="87"/>
+      <c r="G13" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="100" t="s">
+      <c r="H13" s="93"/>
+      <c r="I13" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="101"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="C13:D15"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
@@ -2923,13 +3027,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="C10:D12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3020,45 +3117,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3101,105 +3198,112 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="88" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="94" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="100" t="s">
+      <c r="F11" s="87"/>
+      <c r="G11" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="100" t="s">
+      <c r="H11" s="93"/>
+      <c r="I11" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="101"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="93"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="94" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="100" t="s">
+      <c r="F13" s="87"/>
+      <c r="G13" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="100" t="s">
+      <c r="H13" s="93"/>
+      <c r="I13" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="101"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C13:D15"/>
+    <mergeCell ref="E13:F15"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J15"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -3207,13 +3311,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C13:D15"/>
-    <mergeCell ref="E13:F15"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J15"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3304,41 +3401,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3381,109 +3478,111 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="94" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="100" t="s">
+      <c r="F10" s="87"/>
+      <c r="G10" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="100" t="s">
+      <c r="H10" s="93"/>
+      <c r="I10" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="101"/>
+      <c r="J10" s="93"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="93"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="88" t="s">
+      <c r="D13" s="95"/>
+      <c r="E13" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="87"/>
+      <c r="G14" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="100" t="s">
+      <c r="H14" s="81"/>
+      <c r="I14" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="101"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -3500,8 +3599,6 @@
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="I14:J15"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3592,41 +3689,41 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3669,14 +3766,14 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="94" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="87"/>
       <c r="G10" s="102"/>
       <c r="H10" s="103"/>
       <c r="I10" s="102"/>
@@ -3687,10 +3784,10 @@
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="104"/>
       <c r="H11" s="105"/>
       <c r="I11" s="104"/>
@@ -3701,14 +3798,14 @@
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="102"/>
       <c r="H12" s="103"/>
       <c r="I12" s="102"/>
@@ -3719,14 +3816,14 @@
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="88" t="s">
+      <c r="D13" s="95"/>
+      <c r="E13" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="104"/>
       <c r="H13" s="105"/>
       <c r="I13" s="104"/>
@@ -3737,49 +3834,39 @@
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="100" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="90" t="s">
+      <c r="F14" s="93"/>
+      <c r="G14" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="100" t="s">
+      <c r="H14" s="81"/>
+      <c r="I14" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="101"/>
+      <c r="J14" s="93"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I5:J7"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
@@ -3787,6 +3874,16 @@
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3798,7 +3895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF45C6-D7E3-B946-8B07-8D850D13C2A1}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
@@ -3877,45 +3974,45 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="A7" s="1"/>
-      <c r="B7" s="62"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="A8" s="1"/>
@@ -3958,129 +4055,113 @@
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="94" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="100" t="s">
+      <c r="F10" s="87"/>
+      <c r="G10" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="100" t="s">
+      <c r="H10" s="93"/>
+      <c r="I10" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="101"/>
+      <c r="J10" s="93"/>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="98" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="58" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="94" t="s">
+      <c r="D12" s="97"/>
+      <c r="E12" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="88" t="s">
+      <c r="D13" s="109"/>
+      <c r="E13" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109" t="s">
+      <c r="D14" s="107"/>
+      <c r="E14" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="109"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109" t="s">
+      <c r="D15" s="107"/>
+      <c r="E15" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="G5:H7"/>
     <mergeCell ref="I5:J7"/>
@@ -4089,6 +4170,326 @@
     <mergeCell ref="I10:J11"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3074DE62-2D73-C84A-8245-5AFE2BBD4A70}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43651</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="20">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="20">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="20">
+      <c r="A5" s="1"/>
+      <c r="B5" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" spans="1:10" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:10" ht="20">
+      <c r="A7" s="1"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="40" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="109"/>
+      <c r="E10" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="85"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+    </row>
+    <row r="11" spans="1:10" ht="40" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="101"/>
+      <c r="E11" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="91"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+    </row>
+    <row r="12" spans="1:10" ht="40" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="97"/>
+      <c r="E12" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="87"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+    </row>
+    <row r="13" spans="1:10" ht="40" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="109"/>
+      <c r="E13" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="85"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="107"/>
+      <c r="E14" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="114"/>
+      <c r="I14" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="95"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="107"/>
+      <c r="E15" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="111"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
